--- a/llm/home.xlsx
+++ b/llm/home.xlsx
@@ -104,8 +104,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -129,51 +133,51 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1" s="1" t="n">
         <v>-1.2</v>
       </c>
-      <c r="C1" s="0" t="n">
-        <v>3.78</v>
+      <c r="C1" s="1" t="n">
+        <v>4.78</v>
       </c>
-      <c r="D1" s="0" t="n">
+      <c r="D1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
+      <c r="B3" s="1" t="n">
+        <v>4</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>5</v>
+      <c r="C3" s="1" t="n">
+        <v>3.7</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>8</v>
+      <c r="D3" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/llm/home.xlsx
+++ b/llm/home.xlsx
@@ -20,15 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">咖啡机</t>
   </si>
   <si>
-    <t xml:space="preserve">厨房</t>
-  </si>
-  <si>
-    <t xml:space="preserve">客厅</t>
+    <t xml:space="preserve">讨论室</t>
+  </si>
+  <si>
+    <t xml:space="preserve">机器人实验室</t>
+  </si>
+  <si>
+    <t xml:space="preserve">电梯</t>
   </si>
 </sst>
 </file>
@@ -130,56 +133,71 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>-1.2</v>
+        <v>0.5</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>4.78</v>
+        <v>10.9</v>
       </c>
       <c r="D1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="0" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="B3" s="0" t="n">
+        <v>-4.7</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="B4" s="0" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/llm/home.xlsx
+++ b/llm/home.xlsx
@@ -20,18 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">咖啡机</t>
   </si>
   <si>
-    <t xml:space="preserve">讨论室</t>
+    <t xml:space="preserve">洗手池</t>
   </si>
   <si>
     <t xml:space="preserve">机器人实验室</t>
   </si>
   <si>
     <t xml:space="preserve">电梯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">饮水机</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冰箱</t>
   </si>
 </sst>
 </file>
@@ -133,71 +139,101 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.63"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>10.9</v>
+        <v>3.4</v>
       </c>
       <c r="D1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>-3.7</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="D2" s="0" t="n">
+      <c r="B2" s="1" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>-4.7</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>-0.44</v>
-      </c>
-      <c r="D3" s="0" t="n">
+      <c r="B3" s="1" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B4" s="1" t="n">
+        <v>-6</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
